--- a/Data/All_cases_combined/All_combine_supplementary_1.xlsx
+++ b/Data/All_cases_combined/All_combine_supplementary_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurde/Desktop/Git/EA_human_rabies_case_series/Data/All_cases_combined/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ADAA90D-FA2C-F347-BAD5-89FB276AC506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF25E8D-38F5-FB46-80BB-FE241A17E3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8A784FD0-B905-6E41-B912-C9081F45A94C}"/>
   </bookViews>
@@ -1641,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D51F4F7-708D-BA46-AF22-E49F388EBEFB}">
-  <dimension ref="A1:I264"/>
+  <dimension ref="A1:K264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1683,13 +1683,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>19264663</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>401</v>
@@ -1704,7 +1704,7 @@
         <v>400</v>
       </c>
       <c r="H2">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
@@ -1712,13 +1712,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>19264663</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>401</v>
@@ -1733,7 +1733,7 @@
         <v>400</v>
       </c>
       <c r="H3">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="I3" t="s">
         <v>2</v>
@@ -1741,28 +1741,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>23527015</v>
+        <v>19264663</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>401</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>402</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
         <v>400</v>
       </c>
       <c r="H4">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="I4" t="s">
         <v>2</v>
@@ -1770,28 +1770,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>23527015</v>
+        <v>19264663</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>401</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>402</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
         <v>400</v>
       </c>
       <c r="H5">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="I5" t="s">
         <v>2</v>
@@ -1799,28 +1799,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>23527015</v>
+        <v>19264663</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>401</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>403</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
         <v>400</v>
       </c>
       <c r="H6">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="I6" t="s">
         <v>2</v>
@@ -1828,28 +1828,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>23527015</v>
+        <v>19264663</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>401</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>403</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
         <v>400</v>
       </c>
       <c r="H7">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I7" t="s">
         <v>2</v>
@@ -1857,28 +1857,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>27774283</v>
+        <v>19264663</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>401</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H8">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="I8" t="s">
         <v>2</v>
@@ -1886,28 +1886,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>27058957</v>
+        <v>23527015</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>401</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>402</v>
       </c>
       <c r="G9" t="s">
         <v>400</v>
       </c>
       <c r="H9">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
@@ -1915,28 +1915,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>27058957</v>
+        <v>23527015</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>401</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>402</v>
       </c>
       <c r="G10" t="s">
         <v>400</v>
       </c>
       <c r="H10">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="I10" t="s">
         <v>2</v>
@@ -1944,28 +1944,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>27058957</v>
+        <v>23527015</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>401</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>403</v>
       </c>
       <c r="G11" t="s">
         <v>400</v>
       </c>
       <c r="H11">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="I11" t="s">
         <v>2</v>
@@ -1973,28 +1973,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>27058957</v>
+        <v>23527015</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>401</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>403</v>
       </c>
       <c r="G12" t="s">
         <v>400</v>
       </c>
       <c r="H12">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="I12" t="s">
         <v>2</v>
@@ -2002,28 +2002,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>27058957</v>
+        <v>27774283</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>401</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H13">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="I13" t="s">
         <v>2</v>
@@ -2031,13 +2031,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>27058957</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>401</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>27058957</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>401</v>
@@ -2089,13 +2089,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>27058957</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>401</v>
@@ -2118,13 +2118,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>27058957</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>401</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>27058957</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>401</v>
@@ -2176,13 +2176,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>27058957</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>401</v>
@@ -2205,19 +2205,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>27058957</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>401</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
         <v>88</v>
@@ -2234,13 +2234,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>27058957</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
         <v>401</v>
@@ -2263,13 +2263,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>27058957</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>401</v>
@@ -2292,13 +2292,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>27058957</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
         <v>401</v>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>27058957</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
         <v>401</v>
@@ -2342,7 +2342,7 @@
         <v>400</v>
       </c>
       <c r="H24">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I24" t="s">
         <v>2</v>
@@ -2350,19 +2350,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>27058957</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
         <v>401</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
         <v>88</v>
@@ -2371,7 +2371,7 @@
         <v>400</v>
       </c>
       <c r="H25">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I25" t="s">
         <v>2</v>
@@ -2379,13 +2379,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>27058957</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
         <v>401</v>
@@ -2400,7 +2400,7 @@
         <v>400</v>
       </c>
       <c r="H26">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I26" t="s">
         <v>2</v>
@@ -2408,19 +2408,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>27058957</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
         <v>401</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
         <v>88</v>
@@ -2429,7 +2429,7 @@
         <v>400</v>
       </c>
       <c r="H27">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I27" t="s">
         <v>2</v>
@@ -2437,13 +2437,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>27058957</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>401</v>
@@ -2458,7 +2458,7 @@
         <v>400</v>
       </c>
       <c r="H28">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I28" t="s">
         <v>2</v>
@@ -2466,13 +2466,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>27058957</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
         <v>401</v>
@@ -2487,7 +2487,7 @@
         <v>400</v>
       </c>
       <c r="H29">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I29" t="s">
         <v>2</v>
@@ -2495,13 +2495,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>27058957</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
         <v>401</v>
@@ -2516,7 +2516,7 @@
         <v>400</v>
       </c>
       <c r="H30">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I30" t="s">
         <v>2</v>
@@ -2524,13 +2524,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>27058957</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
         <v>401</v>
@@ -2545,7 +2545,7 @@
         <v>400</v>
       </c>
       <c r="H31">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I31" t="s">
         <v>2</v>
@@ -2553,19 +2553,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>27058957</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
         <v>401</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
         <v>88</v>
@@ -2574,7 +2574,7 @@
         <v>400</v>
       </c>
       <c r="H32">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I32" t="s">
         <v>2</v>
@@ -2582,13 +2582,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>27058957</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
         <v>401</v>
@@ -2603,7 +2603,7 @@
         <v>400</v>
       </c>
       <c r="H33">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I33" t="s">
         <v>2</v>
@@ -2611,13 +2611,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>27058957</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
         <v>401</v>
@@ -2632,7 +2632,7 @@
         <v>400</v>
       </c>
       <c r="H34">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I34" t="s">
         <v>2</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>27058957</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
         <v>401</v>
@@ -2661,7 +2661,7 @@
         <v>400</v>
       </c>
       <c r="H35">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I35" t="s">
         <v>2</v>
@@ -2669,19 +2669,19 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>27058957</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
         <v>401</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
         <v>88</v>
@@ -2690,7 +2690,7 @@
         <v>400</v>
       </c>
       <c r="H36">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I36" t="s">
         <v>2</v>
@@ -2698,13 +2698,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>27058957</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
         <v>401</v>
@@ -2719,7 +2719,7 @@
         <v>400</v>
       </c>
       <c r="H37">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I37" t="s">
         <v>2</v>
@@ -2727,13 +2727,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>27058957</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
         <v>401</v>
@@ -2748,7 +2748,7 @@
         <v>400</v>
       </c>
       <c r="H38">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I38" t="s">
         <v>2</v>
@@ -2756,13 +2756,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>27058957</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
         <v>401</v>
@@ -2777,7 +2777,7 @@
         <v>400</v>
       </c>
       <c r="H39">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I39" t="s">
         <v>2</v>
@@ -2785,13 +2785,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>27058957</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
         <v>401</v>
@@ -2806,7 +2806,7 @@
         <v>400</v>
       </c>
       <c r="H40">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I40" t="s">
         <v>2</v>
@@ -2814,13 +2814,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>27058957</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
         <v>401</v>
@@ -2835,7 +2835,7 @@
         <v>400</v>
       </c>
       <c r="H41">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I41" t="s">
         <v>2</v>
@@ -2843,13 +2843,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>27058957</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
         <v>401</v>
@@ -2864,7 +2864,7 @@
         <v>400</v>
       </c>
       <c r="H42">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I42" t="s">
         <v>2</v>
@@ -2872,19 +2872,19 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>27058957</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
         <v>401</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
         <v>88</v>
@@ -2893,7 +2893,7 @@
         <v>400</v>
       </c>
       <c r="H43">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I43" t="s">
         <v>2</v>
@@ -2901,13 +2901,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>27058957</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
         <v>401</v>
@@ -2930,13 +2930,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>27058957</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
         <v>401</v>
@@ -2945,7 +2945,7 @@
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>353</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s">
         <v>400</v>
@@ -2959,13 +2959,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>27058957</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
         <v>401</v>
@@ -2988,13 +2988,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>27058957</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
         <v>401</v>
@@ -3017,13 +3017,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B48">
         <v>27058957</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
         <v>401</v>
@@ -3046,13 +3046,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>27058957</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
         <v>401</v>
@@ -3075,13 +3075,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>27058957</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
         <v>401</v>
@@ -3104,13 +3104,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>27058957</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D51" t="s">
         <v>401</v>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>27058957</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D52" t="s">
         <v>401</v>
@@ -3148,7 +3148,7 @@
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>353</v>
       </c>
       <c r="G52" t="s">
         <v>400</v>
@@ -3162,13 +3162,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B53">
         <v>27058957</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D53" t="s">
         <v>401</v>
@@ -3191,13 +3191,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>27058957</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D54" t="s">
         <v>401</v>
@@ -3220,13 +3220,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B55">
         <v>27058957</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
         <v>401</v>
@@ -3249,13 +3249,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>27058957</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
         <v>401</v>
@@ -3278,13 +3278,13 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>27058957</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D57" t="s">
         <v>401</v>
@@ -3307,13 +3307,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>27058957</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
         <v>401</v>
@@ -3336,13 +3336,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B59">
         <v>27058957</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
         <v>401</v>
@@ -3365,13 +3365,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B60">
         <v>27058957</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D60" t="s">
         <v>401</v>
@@ -3380,7 +3380,7 @@
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s">
         <v>400</v>
@@ -3394,13 +3394,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>27058957</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D61" t="s">
         <v>401</v>
@@ -3423,13 +3423,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B62">
         <v>27058957</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D62" t="s">
         <v>401</v>
@@ -3452,13 +3452,13 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B63">
         <v>27058957</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D63" t="s">
         <v>401</v>
@@ -3481,13 +3481,13 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B64">
         <v>27058957</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D64" t="s">
         <v>401</v>
@@ -3510,13 +3510,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B65">
         <v>27058957</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D65" t="s">
         <v>401</v>
@@ -3539,13 +3539,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B66">
         <v>27058957</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D66" t="s">
         <v>401</v>
@@ -3568,13 +3568,13 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B67">
         <v>27058957</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D67" t="s">
         <v>401</v>
@@ -3583,7 +3583,7 @@
         <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="G67" t="s">
         <v>400</v>
@@ -3597,13 +3597,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B68">
         <v>27058957</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D68" t="s">
         <v>401</v>
@@ -3626,13 +3626,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B69">
         <v>27058957</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D69" t="s">
         <v>401</v>
@@ -3655,13 +3655,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>27058957</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D70" t="s">
         <v>401</v>
@@ -3684,13 +3684,13 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B71">
         <v>27058957</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D71" t="s">
         <v>401</v>
@@ -3713,13 +3713,13 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B72">
         <v>27058957</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D72" t="s">
         <v>401</v>
@@ -3742,13 +3742,13 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B73">
         <v>27058957</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D73" t="s">
         <v>401</v>
@@ -3771,13 +3771,13 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B74">
         <v>27058957</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D74" t="s">
         <v>401</v>
@@ -3800,13 +3800,13 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B75">
         <v>27058957</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D75" t="s">
         <v>401</v>
@@ -3829,13 +3829,13 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B76">
         <v>27058957</v>
       </c>
       <c r="C76" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D76" t="s">
         <v>401</v>
@@ -3858,13 +3858,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B77">
         <v>27058957</v>
       </c>
       <c r="C77" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D77" t="s">
         <v>401</v>
@@ -3887,13 +3887,13 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B78">
         <v>27058957</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D78" t="s">
         <v>401</v>
@@ -3916,13 +3916,13 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B79">
         <v>27058957</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D79" t="s">
         <v>401</v>
@@ -3945,13 +3945,13 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B80">
         <v>27058957</v>
       </c>
       <c r="C80" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D80" t="s">
         <v>401</v>
@@ -3974,13 +3974,13 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B81">
         <v>27058957</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D81" t="s">
         <v>401</v>
@@ -4003,19 +4003,19 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B82">
         <v>27058957</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D82" t="s">
         <v>401</v>
       </c>
       <c r="E82" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="F82" t="s">
         <v>88</v>
@@ -4024,7 +4024,7 @@
         <v>400</v>
       </c>
       <c r="H82">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I82" t="s">
         <v>2</v>
@@ -4032,13 +4032,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B83">
         <v>27058957</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D83" t="s">
         <v>401</v>
@@ -4053,7 +4053,7 @@
         <v>400</v>
       </c>
       <c r="H83">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I83" t="s">
         <v>2</v>
@@ -4061,13 +4061,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B84">
         <v>27058957</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D84" t="s">
         <v>401</v>
@@ -4082,7 +4082,7 @@
         <v>400</v>
       </c>
       <c r="H84">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I84" t="s">
         <v>2</v>
@@ -4090,13 +4090,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B85">
         <v>27058957</v>
       </c>
       <c r="C85" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D85" t="s">
         <v>401</v>
@@ -4111,7 +4111,7 @@
         <v>400</v>
       </c>
       <c r="H85">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I85" t="s">
         <v>2</v>
@@ -4119,13 +4119,13 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B86">
         <v>27058957</v>
       </c>
       <c r="C86" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D86" t="s">
         <v>401</v>
@@ -4140,7 +4140,7 @@
         <v>400</v>
       </c>
       <c r="H86">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I86" t="s">
         <v>2</v>
@@ -4148,13 +4148,13 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B87">
         <v>27058957</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D87" t="s">
         <v>401</v>
@@ -4163,13 +4163,13 @@
         <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>353</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s">
         <v>400</v>
       </c>
       <c r="H87">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I87" t="s">
         <v>2</v>
@@ -4177,13 +4177,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B88">
         <v>27058957</v>
       </c>
       <c r="C88" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D88" t="s">
         <v>401</v>
@@ -4198,7 +4198,7 @@
         <v>400</v>
       </c>
       <c r="H88">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I88" t="s">
         <v>2</v>
@@ -4206,19 +4206,19 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B89">
         <v>27058957</v>
       </c>
       <c r="C89" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D89" t="s">
         <v>401</v>
       </c>
       <c r="E89" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="F89" t="s">
         <v>88</v>
@@ -4235,13 +4235,13 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B90">
         <v>27058957</v>
       </c>
       <c r="C90" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D90" t="s">
         <v>401</v>
@@ -4264,13 +4264,13 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B91">
         <v>27058957</v>
       </c>
       <c r="C91" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D91" t="s">
         <v>401</v>
@@ -4293,13 +4293,13 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B92">
         <v>27058957</v>
       </c>
       <c r="C92" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D92" t="s">
         <v>401</v>
@@ -4322,13 +4322,13 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B93">
         <v>27058957</v>
       </c>
       <c r="C93" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D93" t="s">
         <v>401</v>
@@ -4351,13 +4351,13 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B94">
         <v>27058957</v>
       </c>
       <c r="C94" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D94" t="s">
         <v>401</v>
@@ -4366,7 +4366,7 @@
         <v>21</v>
       </c>
       <c r="F94" t="s">
-        <v>88</v>
+        <v>353</v>
       </c>
       <c r="G94" t="s">
         <v>400</v>
@@ -4380,13 +4380,13 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B95">
         <v>27058957</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D95" t="s">
         <v>401</v>
@@ -4409,13 +4409,13 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>27058957</v>
       </c>
       <c r="C96" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D96" t="s">
         <v>401</v>
@@ -4438,13 +4438,13 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B97">
         <v>27058957</v>
       </c>
       <c r="C97" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D97" t="s">
         <v>401</v>
@@ -4467,13 +4467,13 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B98">
         <v>27058957</v>
       </c>
       <c r="C98" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D98" t="s">
         <v>401</v>
@@ -4496,13 +4496,13 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B99">
         <v>27058957</v>
       </c>
       <c r="C99" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D99" t="s">
         <v>401</v>
@@ -4525,13 +4525,13 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>27058957</v>
       </c>
       <c r="C100" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D100" t="s">
         <v>401</v>
@@ -4554,13 +4554,13 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B101">
         <v>27058957</v>
       </c>
       <c r="C101" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D101" t="s">
         <v>401</v>
@@ -4583,13 +4583,13 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>27058957</v>
       </c>
       <c r="C102" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D102" t="s">
         <v>401</v>
@@ -4612,13 +4612,13 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>27058957</v>
       </c>
       <c r="C103" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D103" t="s">
         <v>401</v>
@@ -4641,13 +4641,13 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>27058957</v>
       </c>
       <c r="C104" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D104" t="s">
         <v>401</v>
@@ -4662,7 +4662,7 @@
         <v>400</v>
       </c>
       <c r="H104">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I104" t="s">
         <v>2</v>
@@ -4670,13 +4670,13 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B105">
         <v>27058957</v>
       </c>
       <c r="C105" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D105" t="s">
         <v>401</v>
@@ -4691,7 +4691,7 @@
         <v>400</v>
       </c>
       <c r="H105">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I105" t="s">
         <v>2</v>
@@ -4699,13 +4699,13 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B106">
         <v>27058957</v>
       </c>
       <c r="C106" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D106" t="s">
         <v>401</v>
@@ -4720,7 +4720,7 @@
         <v>400</v>
       </c>
       <c r="H106">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I106" t="s">
         <v>2</v>
@@ -4728,13 +4728,13 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B107">
         <v>27058957</v>
       </c>
       <c r="C107" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D107" t="s">
         <v>401</v>
@@ -4749,7 +4749,7 @@
         <v>400</v>
       </c>
       <c r="H107">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I107" t="s">
         <v>2</v>
@@ -4757,13 +4757,13 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B108">
         <v>27058957</v>
       </c>
       <c r="C108" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D108" t="s">
         <v>401</v>
@@ -4778,7 +4778,7 @@
         <v>400</v>
       </c>
       <c r="H108">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I108" t="s">
         <v>2</v>
@@ -4786,13 +4786,13 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B109">
         <v>27058957</v>
       </c>
       <c r="C109" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D109" t="s">
         <v>401</v>
@@ -4807,7 +4807,7 @@
         <v>400</v>
       </c>
       <c r="H109">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I109" t="s">
         <v>2</v>
@@ -4815,13 +4815,13 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B110">
         <v>27058957</v>
       </c>
       <c r="C110" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D110" t="s">
         <v>401</v>
@@ -4836,7 +4836,7 @@
         <v>400</v>
       </c>
       <c r="H110">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I110" t="s">
         <v>2</v>
@@ -4844,13 +4844,13 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B111">
         <v>27058957</v>
       </c>
       <c r="C111" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D111" t="s">
         <v>401</v>
@@ -4873,13 +4873,13 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B112">
         <v>27058957</v>
       </c>
       <c r="C112" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D112" t="s">
         <v>401</v>
@@ -4888,7 +4888,7 @@
         <v>21</v>
       </c>
       <c r="F112" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="G112" t="s">
         <v>400</v>
@@ -4902,13 +4902,13 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B113">
         <v>27058957</v>
       </c>
       <c r="C113" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D113" t="s">
         <v>401</v>
@@ -4931,13 +4931,13 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B114">
         <v>27058957</v>
       </c>
       <c r="C114" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D114" t="s">
         <v>401</v>
@@ -4960,13 +4960,13 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B115">
         <v>27058957</v>
       </c>
       <c r="C115" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D115" t="s">
         <v>401</v>
@@ -4989,13 +4989,13 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B116">
         <v>27058957</v>
       </c>
       <c r="C116" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D116" t="s">
         <v>401</v>
@@ -5018,13 +5018,13 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B117">
         <v>27058957</v>
       </c>
       <c r="C117" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D117" t="s">
         <v>401</v>
@@ -5047,13 +5047,13 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B118">
         <v>27058957</v>
       </c>
       <c r="C118" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D118" t="s">
         <v>401</v>
@@ -5062,7 +5062,7 @@
         <v>21</v>
       </c>
       <c r="F118" t="s">
-        <v>353</v>
+        <v>88</v>
       </c>
       <c r="G118" t="s">
         <v>400</v>
@@ -5076,13 +5076,13 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B119">
         <v>27058957</v>
       </c>
       <c r="C119" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D119" t="s">
         <v>401</v>
@@ -5091,7 +5091,7 @@
         <v>21</v>
       </c>
       <c r="F119" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="G119" t="s">
         <v>400</v>
@@ -5105,13 +5105,13 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B120">
         <v>27058957</v>
       </c>
       <c r="C120" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D120" t="s">
         <v>401</v>
@@ -5126,7 +5126,7 @@
         <v>400</v>
       </c>
       <c r="H120">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I120" t="s">
         <v>2</v>
@@ -5134,13 +5134,13 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B121">
         <v>27058957</v>
       </c>
       <c r="C121" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D121" t="s">
         <v>401</v>
@@ -5155,7 +5155,7 @@
         <v>400</v>
       </c>
       <c r="H121">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I121" t="s">
         <v>2</v>
@@ -5163,13 +5163,13 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B122">
         <v>27058957</v>
       </c>
       <c r="C122" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D122" t="s">
         <v>401</v>
@@ -5184,7 +5184,7 @@
         <v>400</v>
       </c>
       <c r="H122">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I122" t="s">
         <v>2</v>
@@ -5192,13 +5192,13 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B123">
         <v>27058957</v>
       </c>
       <c r="C123" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D123" t="s">
         <v>401</v>
@@ -5213,7 +5213,7 @@
         <v>400</v>
       </c>
       <c r="H123">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I123" t="s">
         <v>2</v>
@@ -5221,19 +5221,19 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B124">
         <v>27058957</v>
       </c>
       <c r="C124" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D124" t="s">
         <v>401</v>
       </c>
       <c r="E124" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="F124" t="s">
         <v>88</v>
@@ -5242,7 +5242,7 @@
         <v>400</v>
       </c>
       <c r="H124">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I124" t="s">
         <v>2</v>
@@ -5250,28 +5250,28 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B125">
         <v>27058957</v>
       </c>
       <c r="C125" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D125" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E125" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="F125" t="s">
-        <v>88</v>
+        <v>353</v>
       </c>
       <c r="G125" t="s">
         <v>400</v>
       </c>
       <c r="H125">
-        <v>1989</v>
+        <v>2009</v>
       </c>
       <c r="I125" t="s">
         <v>2</v>
@@ -5279,13 +5279,13 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B126">
         <v>27058957</v>
       </c>
       <c r="C126" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D126" t="s">
         <v>401</v>
@@ -5300,7 +5300,7 @@
         <v>400</v>
       </c>
       <c r="H126">
-        <v>1992</v>
+        <v>2009</v>
       </c>
       <c r="I126" t="s">
         <v>2</v>
@@ -5308,13 +5308,13 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B127">
         <v>27058957</v>
       </c>
       <c r="C127" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D127" t="s">
         <v>401</v>
@@ -5329,7 +5329,7 @@
         <v>400</v>
       </c>
       <c r="H127">
-        <v>1992</v>
+        <v>2010</v>
       </c>
       <c r="I127" t="s">
         <v>2</v>
@@ -5337,276 +5337,299 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128">
+        <v>27058957</v>
+      </c>
+      <c r="C128" t="s">
+        <v>139</v>
+      </c>
+      <c r="D128" t="s">
+        <v>401</v>
+      </c>
+      <c r="E128" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128" t="s">
+        <v>88</v>
+      </c>
+      <c r="G128" t="s">
+        <v>400</v>
+      </c>
+      <c r="H128">
+        <v>2010</v>
+      </c>
+      <c r="I128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129">
+        <v>27058957</v>
+      </c>
+      <c r="C129" t="s">
+        <v>140</v>
+      </c>
+      <c r="D129" t="s">
+        <v>401</v>
+      </c>
+      <c r="E129" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" t="s">
+        <v>88</v>
+      </c>
+      <c r="G129" t="s">
+        <v>400</v>
+      </c>
+      <c r="H129">
+        <v>2010</v>
+      </c>
+      <c r="I129" t="s">
+        <v>2</v>
+      </c>
+      <c r="J129"/>
+      <c r="K129"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130">
+        <v>27058957</v>
+      </c>
+      <c r="C130" t="s">
+        <v>141</v>
+      </c>
+      <c r="D130" t="s">
+        <v>401</v>
+      </c>
+      <c r="E130" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" t="s">
+        <v>88</v>
+      </c>
+      <c r="G130" t="s">
+        <v>400</v>
+      </c>
+      <c r="H130">
+        <v>2010</v>
+      </c>
+      <c r="I130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131">
+        <v>27058957</v>
+      </c>
+      <c r="C131" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" t="s">
+        <v>401</v>
+      </c>
+      <c r="E131" t="s">
+        <v>143</v>
+      </c>
+      <c r="F131" t="s">
+        <v>88</v>
+      </c>
+      <c r="G131" t="s">
+        <v>400</v>
+      </c>
+      <c r="H131">
+        <v>2011</v>
+      </c>
+      <c r="I131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132">
+        <v>27058957</v>
+      </c>
+      <c r="C132" t="s">
+        <v>144</v>
+      </c>
+      <c r="D132" t="s">
+        <v>399</v>
+      </c>
+      <c r="E132" t="s">
+        <v>145</v>
+      </c>
+      <c r="F132" t="s">
+        <v>88</v>
+      </c>
+      <c r="G132" t="s">
+        <v>400</v>
+      </c>
+      <c r="H132">
+        <v>1989</v>
+      </c>
+      <c r="I132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133">
+        <v>27058957</v>
+      </c>
+      <c r="C133" t="s">
+        <v>146</v>
+      </c>
+      <c r="D133" t="s">
+        <v>401</v>
+      </c>
+      <c r="E133" t="s">
+        <v>21</v>
+      </c>
+      <c r="F133" t="s">
+        <v>88</v>
+      </c>
+      <c r="G133" t="s">
+        <v>400</v>
+      </c>
+      <c r="H133">
+        <v>1992</v>
+      </c>
+      <c r="I133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134">
+        <v>27058957</v>
+      </c>
+      <c r="C134" t="s">
+        <v>147</v>
+      </c>
+      <c r="D134" t="s">
+        <v>401</v>
+      </c>
+      <c r="E134" t="s">
+        <v>21</v>
+      </c>
+      <c r="F134" t="s">
+        <v>88</v>
+      </c>
+      <c r="G134" t="s">
+        <v>400</v>
+      </c>
+      <c r="H134">
+        <v>1992</v>
+      </c>
+      <c r="I134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>148</v>
       </c>
-      <c r="B128">
+      <c r="B135">
         <v>27977811</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C135" t="s">
         <v>148</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D135" t="s">
         <v>10</v>
       </c>
-      <c r="E128" t="s">
-        <v>2</v>
-      </c>
-      <c r="F128" t="s">
-        <v>88</v>
-      </c>
-      <c r="G128" t="s">
-        <v>400</v>
-      </c>
-      <c r="H128">
+      <c r="E135" t="s">
+        <v>2</v>
+      </c>
+      <c r="F135" t="s">
+        <v>88</v>
+      </c>
+      <c r="G135" t="s">
+        <v>400</v>
+      </c>
+      <c r="H135">
         <v>1992</v>
       </c>
-      <c r="I128" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+      <c r="I135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
         <v>2010818843</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="B136" s="1"/>
+      <c r="C136" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E129" s="1" t="s">
+      <c r="D136" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="H129" s="1">
+      <c r="H136" s="1">
         <v>2013</v>
       </c>
-      <c r="I129" s="1">
+      <c r="I136" s="1">
         <v>70.64</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>153</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C137" t="s">
         <v>153</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D137" t="s">
         <v>154</v>
       </c>
-      <c r="E130" t="s">
-        <v>2</v>
-      </c>
-      <c r="F130" t="s">
-        <v>88</v>
-      </c>
-      <c r="G130" t="s">
-        <v>400</v>
-      </c>
-      <c r="H130">
+      <c r="E137" t="s">
+        <v>2</v>
+      </c>
+      <c r="F137" t="s">
+        <v>88</v>
+      </c>
+      <c r="G137" t="s">
+        <v>400</v>
+      </c>
+      <c r="H137">
         <v>2011</v>
       </c>
-      <c r="I130" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="I137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>155</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C138" t="s">
         <v>157</v>
-      </c>
-      <c r="D131" t="s">
-        <v>156</v>
-      </c>
-      <c r="E131" t="s">
-        <v>2</v>
-      </c>
-      <c r="F131" t="s">
-        <v>88</v>
-      </c>
-      <c r="G131" t="s">
-        <v>400</v>
-      </c>
-      <c r="H131">
-        <v>2016</v>
-      </c>
-      <c r="I131" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>2011100186</v>
-      </c>
-      <c r="C132" t="s">
-        <v>159</v>
-      </c>
-      <c r="D132" t="s">
-        <v>150</v>
-      </c>
-      <c r="E132" t="s">
-        <v>158</v>
-      </c>
-      <c r="F132" t="s">
-        <v>88</v>
-      </c>
-      <c r="G132" t="s">
-        <v>405</v>
-      </c>
-      <c r="H132">
-        <v>2017</v>
-      </c>
-      <c r="I132">
-        <v>83.13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>160</v>
-      </c>
-      <c r="B133">
-        <v>32090172</v>
-      </c>
-      <c r="C133" t="s">
-        <v>160</v>
-      </c>
-      <c r="D133" t="s">
-        <v>150</v>
-      </c>
-      <c r="E133" t="s">
-        <v>158</v>
-      </c>
-      <c r="F133" t="s">
-        <v>149</v>
-      </c>
-      <c r="G133" t="s">
-        <v>405</v>
-      </c>
-      <c r="H133">
-        <v>2018</v>
-      </c>
-      <c r="I133" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>161</v>
-      </c>
-      <c r="C134" t="s">
-        <v>161</v>
-      </c>
-      <c r="D134" t="s">
-        <v>150</v>
-      </c>
-      <c r="E134" t="s">
-        <v>163</v>
-      </c>
-      <c r="F134" t="s">
-        <v>88</v>
-      </c>
-      <c r="G134" t="s">
-        <v>405</v>
-      </c>
-      <c r="H134">
-        <v>2019</v>
-      </c>
-      <c r="I134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>152</v>
-      </c>
-      <c r="C135" t="s">
-        <v>166</v>
-      </c>
-      <c r="D135" t="s">
-        <v>18</v>
-      </c>
-      <c r="E135" t="s">
-        <v>19</v>
-      </c>
-      <c r="F135" t="s">
-        <v>406</v>
-      </c>
-      <c r="G135" t="s">
-        <v>404</v>
-      </c>
-      <c r="H135">
-        <v>2013</v>
-      </c>
-      <c r="I135" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>172</v>
-      </c>
-      <c r="C136" t="s">
-        <v>155</v>
-      </c>
-      <c r="D136" t="s">
-        <v>156</v>
-      </c>
-      <c r="E136" t="s">
-        <v>2</v>
-      </c>
-      <c r="F136" t="s">
-        <v>407</v>
-      </c>
-      <c r="G136" t="s">
-        <v>400</v>
-      </c>
-      <c r="H136">
-        <v>2016</v>
-      </c>
-      <c r="I136" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>173</v>
-      </c>
-      <c r="C137" t="s">
-        <v>174</v>
-      </c>
-      <c r="D137" t="s">
-        <v>156</v>
-      </c>
-      <c r="E137" t="s">
-        <v>2</v>
-      </c>
-      <c r="F137" t="s">
-        <v>88</v>
-      </c>
-      <c r="G137" t="s">
-        <v>400</v>
-      </c>
-      <c r="H137">
-        <v>2017</v>
-      </c>
-      <c r="I137" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>175</v>
-      </c>
-      <c r="C138" t="s">
-        <v>176</v>
       </c>
       <c r="D138" t="s">
         <v>156</v>
@@ -5621,108 +5644,111 @@
         <v>400</v>
       </c>
       <c r="H138">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I138" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>174</v>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>2011100186</v>
       </c>
       <c r="C139" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D139" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E139" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="F139" t="s">
         <v>88</v>
       </c>
       <c r="G139" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H139">
         <v>2017</v>
       </c>
-      <c r="I139" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I139">
+        <v>83.13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>176</v>
+        <v>160</v>
+      </c>
+      <c r="B140">
+        <v>32090172</v>
       </c>
       <c r="C140" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D140" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E140" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="F140" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="G140" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H140">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I140" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C141" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D141" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E141" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="F141" t="s">
-        <v>407</v>
+        <v>88</v>
       </c>
       <c r="G141" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H141">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="I141" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C142" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D142" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E142" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="F142" t="s">
-        <v>88</v>
+        <v>408</v>
       </c>
       <c r="G142" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H142">
         <v>2017</v>
@@ -5731,50 +5757,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C143" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D143" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="E143" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="G143" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H143">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="I143" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B144">
-        <v>33158200</v>
+        <v>32090172</v>
       </c>
       <c r="C144" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D144" t="s">
         <v>150</v>
       </c>
       <c r="E144" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F144" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="G144" t="s">
         <v>405</v>
@@ -5788,28 +5814,28 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B145">
-        <v>33158200</v>
+        <v>32090172</v>
       </c>
       <c r="C145" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D145" t="s">
         <v>150</v>
       </c>
       <c r="E145" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F145" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="G145" t="s">
         <v>405</v>
       </c>
       <c r="H145">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="I145" t="s">
         <v>2</v>
@@ -5817,28 +5843,25 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>182</v>
-      </c>
-      <c r="B146">
-        <v>33158200</v>
+        <v>168</v>
       </c>
       <c r="C146" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D146" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E146" t="s">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="F146" t="s">
-        <v>406</v>
+        <v>169</v>
       </c>
       <c r="G146" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H146">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="I146" t="s">
         <v>2</v>
@@ -5846,28 +5869,25 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>183</v>
-      </c>
-      <c r="B147">
-        <v>33158200</v>
+        <v>170</v>
       </c>
       <c r="C147" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D147" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E147" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="F147" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="G147" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H147">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="I147" t="s">
         <v>2</v>
@@ -5875,146 +5895,143 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="C148" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D148" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E148" t="s">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="F148" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="G148" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H148">
-        <v>2021</v>
-      </c>
-      <c r="I148">
-        <v>97.89</v>
+        <v>2016</v>
+      </c>
+      <c r="I148" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C149" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="D149" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E149" t="s">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="F149" t="s">
-        <v>88</v>
+        <v>407</v>
       </c>
       <c r="G149" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H149">
-        <v>2021</v>
-      </c>
-      <c r="I149">
-        <v>97.91</v>
+        <v>2016</v>
+      </c>
+      <c r="I149" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="C150" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="D150" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E150" t="s">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="F150" t="s">
         <v>88</v>
       </c>
       <c r="G150" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H150">
-        <v>2021</v>
-      </c>
-      <c r="I150">
-        <v>97.8</v>
+        <v>2017</v>
+      </c>
+      <c r="I150" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="C151" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="D151" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E151" t="s">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="F151" t="s">
         <v>88</v>
       </c>
       <c r="G151" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H151">
-        <v>2021</v>
-      </c>
-      <c r="I151">
-        <v>98</v>
+        <v>2017</v>
+      </c>
+      <c r="I151" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>361</v>
+        <v>174</v>
       </c>
       <c r="C152" t="s">
-        <v>362</v>
+        <v>177</v>
       </c>
       <c r="D152" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E152" t="s">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="F152" t="s">
-        <v>353</v>
+        <v>88</v>
       </c>
       <c r="G152" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H152">
-        <v>2022</v>
-      </c>
-      <c r="I152">
-        <v>98.05</v>
+        <v>2017</v>
+      </c>
+      <c r="I152" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1</v>
-      </c>
-      <c r="B153">
-        <v>19264663</v>
+        <v>176</v>
       </c>
       <c r="C153" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="D153" t="s">
-        <v>401</v>
+        <v>156</v>
       </c>
       <c r="E153" t="s">
         <v>2</v>
@@ -6026,7 +6043,7 @@
         <v>400</v>
       </c>
       <c r="H153">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="I153" t="s">
         <v>2</v>
@@ -6034,28 +6051,25 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>3</v>
-      </c>
-      <c r="B154">
-        <v>19264663</v>
+        <v>178</v>
       </c>
       <c r="C154" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="D154" t="s">
-        <v>401</v>
+        <v>156</v>
       </c>
       <c r="E154" t="s">
         <v>2</v>
       </c>
       <c r="F154" t="s">
-        <v>88</v>
+        <v>407</v>
       </c>
       <c r="G154" t="s">
         <v>400</v>
       </c>
       <c r="H154">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="I154" t="s">
         <v>2</v>
@@ -6063,16 +6077,13 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>4</v>
-      </c>
-      <c r="B155">
-        <v>19264663</v>
+        <v>177</v>
       </c>
       <c r="C155" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="D155" t="s">
-        <v>401</v>
+        <v>156</v>
       </c>
       <c r="E155" t="s">
         <v>2</v>
@@ -6084,7 +6095,7 @@
         <v>400</v>
       </c>
       <c r="H155">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="I155" t="s">
         <v>2</v>
@@ -6092,28 +6103,25 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>167</v>
-      </c>
-      <c r="B156">
-        <v>32090172</v>
+        <v>179</v>
       </c>
       <c r="C156" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D156" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E156" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="F156" t="s">
-        <v>406</v>
+        <v>88</v>
       </c>
       <c r="G156" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H156">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I156" t="s">
         <v>2</v>
@@ -6121,28 +6129,28 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B157">
-        <v>32090172</v>
+        <v>33158200</v>
       </c>
       <c r="C157" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D157" t="s">
         <v>150</v>
       </c>
       <c r="E157" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F157" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="G157" t="s">
         <v>405</v>
       </c>
       <c r="H157">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="I157" t="s">
         <v>2</v>
@@ -6150,25 +6158,28 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>168</v>
+        <v>181</v>
+      </c>
+      <c r="B158">
+        <v>33158200</v>
       </c>
       <c r="C158" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D158" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E158" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="F158" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H158">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="I158" t="s">
         <v>2</v>
@@ -6176,25 +6187,28 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>170</v>
+        <v>182</v>
+      </c>
+      <c r="B159">
+        <v>33158200</v>
       </c>
       <c r="C159" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D159" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E159" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="F159" t="s">
-        <v>169</v>
+        <v>406</v>
       </c>
       <c r="G159" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H159">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="I159" t="s">
         <v>2</v>
@@ -6202,31 +6216,34 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>171</v>
+        <v>183</v>
+      </c>
+      <c r="B160">
+        <v>33158200</v>
       </c>
       <c r="C160" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D160" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E160" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="F160" t="s">
-        <v>407</v>
+        <v>88</v>
       </c>
       <c r="G160" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H160">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="I160" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>184</v>
       </c>
@@ -6255,7 +6272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>185</v>
       </c>
@@ -6284,7 +6301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>2021153276</v>
       </c>
@@ -6310,7 +6327,7 @@
         <v>94.24</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>187</v>
       </c>
@@ -6336,7 +6353,7 @@
         <v>97.97</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>190</v>
       </c>
@@ -6362,7 +6379,7 @@
         <v>97.42</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>192</v>
       </c>
@@ -6388,12 +6405,12 @@
         <v>97.63</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C167" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D167" t="s">
         <v>150</v>
@@ -6408,18 +6425,18 @@
         <v>404</v>
       </c>
       <c r="H167">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I167">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+        <v>93.22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>316</v>
+        <v>197</v>
       </c>
       <c r="C168" t="s">
-        <v>317</v>
+        <v>199</v>
       </c>
       <c r="D168" t="s">
         <v>150</v>
@@ -6428,7 +6445,7 @@
         <v>195</v>
       </c>
       <c r="F168" t="s">
-        <v>353</v>
+        <v>88</v>
       </c>
       <c r="G168" t="s">
         <v>404</v>
@@ -6437,15 +6454,15 @@
         <v>2021</v>
       </c>
       <c r="I168">
-        <v>97.79</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+        <v>95.66</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="C169" t="s">
-        <v>325</v>
+        <v>201</v>
       </c>
       <c r="D169" t="s">
         <v>150</v>
@@ -6454,7 +6471,7 @@
         <v>195</v>
       </c>
       <c r="F169" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="G169" t="s">
         <v>404</v>
@@ -6463,41 +6480,41 @@
         <v>2021</v>
       </c>
       <c r="I169">
-        <v>97.61</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97.75</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="C170" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="D170" t="s">
         <v>150</v>
       </c>
       <c r="E170" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F170" t="s">
-        <v>88</v>
+        <v>353</v>
       </c>
       <c r="G170" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H170">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="I170">
-        <v>76.989999999999995</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97.89</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>367</v>
+        <v>204</v>
       </c>
       <c r="C171" t="s">
-        <v>368</v>
+        <v>206</v>
       </c>
       <c r="D171" t="s">
         <v>150</v>
@@ -6512,24 +6529,24 @@
         <v>404</v>
       </c>
       <c r="H171">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I171">
-        <v>97.96</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97.91</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>369</v>
+        <v>207</v>
       </c>
       <c r="C172" t="s">
-        <v>371</v>
+        <v>208</v>
       </c>
       <c r="D172" t="s">
         <v>150</v>
       </c>
       <c r="E172" t="s">
-        <v>370</v>
+        <v>195</v>
       </c>
       <c r="F172" t="s">
         <v>88</v>
@@ -6538,18 +6555,18 @@
         <v>404</v>
       </c>
       <c r="H172">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I172">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>340</v>
+        <v>209</v>
       </c>
       <c r="C173" t="s">
-        <v>341</v>
+        <v>210</v>
       </c>
       <c r="D173" t="s">
         <v>150</v>
@@ -6567,489 +6584,495 @@
         <v>2021</v>
       </c>
       <c r="I173">
-        <v>97.45</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>376</v>
+        <v>211</v>
       </c>
       <c r="C174" t="s">
-        <v>377</v>
+        <v>212</v>
       </c>
       <c r="D174" t="s">
         <v>150</v>
       </c>
       <c r="E174" t="s">
-        <v>412</v>
+        <v>195</v>
       </c>
       <c r="F174" t="s">
-        <v>406</v>
+        <v>88</v>
       </c>
       <c r="G174" t="s">
         <v>404</v>
       </c>
       <c r="H174">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I174">
-        <v>96.59</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>330</v>
-      </c>
-      <c r="C175" t="s">
-        <v>331</v>
-      </c>
-      <c r="D175" t="s">
-        <v>150</v>
-      </c>
-      <c r="E175" t="s">
-        <v>195</v>
-      </c>
-      <c r="F175" t="s">
-        <v>88</v>
-      </c>
-      <c r="G175" t="s">
-        <v>404</v>
-      </c>
-      <c r="H175">
-        <v>2021</v>
-      </c>
-      <c r="I175">
-        <v>97.95</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>359</v>
-      </c>
-      <c r="C176" t="s">
-        <v>360</v>
-      </c>
-      <c r="D176" t="s">
-        <v>18</v>
-      </c>
-      <c r="E176" t="s">
-        <v>188</v>
-      </c>
-      <c r="F176" t="s">
-        <v>88</v>
-      </c>
-      <c r="G176" t="s">
-        <v>404</v>
-      </c>
-      <c r="H176">
-        <v>2022</v>
-      </c>
-      <c r="I176">
-        <v>97.88</v>
-      </c>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H175" s="2">
+        <v>2018</v>
+      </c>
+      <c r="I175" s="2">
+        <v>76.75</v>
+      </c>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H176" s="2">
+        <v>2018</v>
+      </c>
+      <c r="I176" s="2">
+        <v>51.12</v>
+      </c>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="C177" t="s">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="D177" t="s">
         <v>150</v>
       </c>
       <c r="E177" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F177" t="s">
         <v>88</v>
       </c>
       <c r="G177" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H177">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="I177">
-        <v>86.25</v>
+        <v>95.74</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="C178" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="D178" t="s">
         <v>150</v>
       </c>
       <c r="E178" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="F178" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="G178" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H178">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I178">
-        <v>74.930000000000007</v>
+        <v>97.78</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>374</v>
+        <v>222</v>
       </c>
       <c r="C179" t="s">
-        <v>375</v>
+        <v>223</v>
       </c>
       <c r="D179" t="s">
         <v>150</v>
       </c>
       <c r="E179" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="F179" t="s">
         <v>88</v>
       </c>
       <c r="G179" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H179">
         <v>2022</v>
       </c>
       <c r="I179">
-        <v>98.04</v>
+        <v>97.53</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>382</v>
+        <v>224</v>
       </c>
       <c r="C180" t="s">
-        <v>383</v>
+        <v>226</v>
       </c>
       <c r="D180" t="s">
         <v>150</v>
       </c>
       <c r="E180" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="F180" t="s">
         <v>88</v>
       </c>
       <c r="G180" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H180">
         <v>2022</v>
       </c>
       <c r="I180">
-        <v>98</v>
+        <v>97.21</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>365</v>
+        <v>227</v>
       </c>
       <c r="C181" t="s">
-        <v>366</v>
+        <v>229</v>
       </c>
       <c r="D181" t="s">
         <v>150</v>
       </c>
       <c r="E181" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="F181" t="s">
         <v>88</v>
       </c>
       <c r="G181" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H181">
         <v>2022</v>
       </c>
       <c r="I181">
-        <v>98.01</v>
+        <v>96.66</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>372</v>
+        <v>230</v>
       </c>
       <c r="C182" t="s">
-        <v>373</v>
+        <v>231</v>
       </c>
       <c r="D182" t="s">
         <v>150</v>
       </c>
       <c r="E182" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="F182" t="s">
-        <v>353</v>
+        <v>88</v>
       </c>
       <c r="G182" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H182">
         <v>2022</v>
       </c>
       <c r="I182">
-        <v>98.03</v>
+        <v>97.76</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>336</v>
+        <v>232</v>
       </c>
       <c r="C183" t="s">
-        <v>337</v>
+        <v>233</v>
       </c>
       <c r="D183" t="s">
         <v>150</v>
       </c>
       <c r="E183" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="F183" t="s">
         <v>88</v>
       </c>
       <c r="G183" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H183">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I183">
-        <v>97.71</v>
+        <v>96.79</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>318</v>
+        <v>234</v>
       </c>
       <c r="C184" t="s">
-        <v>319</v>
+        <v>235</v>
       </c>
       <c r="D184" t="s">
         <v>150</v>
       </c>
       <c r="E184" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="F184" t="s">
         <v>88</v>
       </c>
       <c r="G184" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H184">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I184">
-        <v>97.85</v>
+        <v>96.44</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>300</v>
+        <v>236</v>
       </c>
       <c r="C185" t="s">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="D185" t="s">
         <v>150</v>
       </c>
       <c r="E185" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F185" t="s">
-        <v>406</v>
+        <v>88</v>
       </c>
       <c r="G185" t="s">
         <v>405</v>
       </c>
       <c r="H185">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="I185">
-        <v>62.62</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="C186" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="D186" t="s">
         <v>150</v>
       </c>
       <c r="E186" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F186" t="s">
-        <v>406</v>
+        <v>88</v>
       </c>
       <c r="G186" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H186">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="I186">
-        <v>76.73</v>
+        <v>97.74</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>334</v>
+        <v>240</v>
       </c>
       <c r="C187" t="s">
-        <v>335</v>
+        <v>241</v>
       </c>
       <c r="D187" t="s">
         <v>150</v>
       </c>
       <c r="E187" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="F187" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="G187" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H187">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I187">
-        <v>97.77</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="C188" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="D188" t="s">
         <v>150</v>
       </c>
       <c r="E188" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="F188" t="s">
-        <v>406</v>
+        <v>88</v>
       </c>
       <c r="G188" t="s">
         <v>405</v>
       </c>
       <c r="H188">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="I188">
-        <v>86.7</v>
+        <v>97.85</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>378</v>
+        <v>244</v>
       </c>
       <c r="C189" t="s">
-        <v>379</v>
+        <v>245</v>
       </c>
       <c r="D189" t="s">
         <v>150</v>
       </c>
       <c r="E189" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="F189" t="s">
         <v>88</v>
       </c>
       <c r="G189" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H189">
         <v>2022</v>
       </c>
       <c r="I189">
-        <v>98.03</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>2011100186</v>
+      <c r="A190" t="s">
+        <v>246</v>
       </c>
       <c r="C190" t="s">
-        <v>410</v>
+        <v>247</v>
       </c>
       <c r="D190" t="s">
         <v>150</v>
       </c>
       <c r="E190" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F190" t="s">
         <v>88</v>
       </c>
       <c r="G190" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H190">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="I190">
-        <v>83.12</v>
+        <v>97.76</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>390</v>
+        <v>248</v>
       </c>
       <c r="C191" t="s">
-        <v>391</v>
+        <v>249</v>
       </c>
       <c r="D191" t="s">
         <v>150</v>
       </c>
       <c r="E191" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F191" t="s">
-        <v>353</v>
+        <v>88</v>
       </c>
       <c r="G191" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H191">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I191">
-        <v>98.07</v>
+        <v>95.92</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="C192" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="D192" t="s">
         <v>150</v>
       </c>
       <c r="E192" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="F192" t="s">
         <v>88</v>
@@ -7058,229 +7081,229 @@
         <v>405</v>
       </c>
       <c r="H192">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I192">
-        <v>97.16</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97.76</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>386</v>
+        <v>252</v>
       </c>
       <c r="C193" t="s">
-        <v>387</v>
+        <v>253</v>
       </c>
       <c r="D193" t="s">
         <v>150</v>
       </c>
       <c r="E193" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F193" t="s">
         <v>88</v>
       </c>
       <c r="G193" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H193">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I193">
-        <v>97.99</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96.68</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="C194" t="s">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="D194" t="s">
         <v>150</v>
       </c>
       <c r="E194" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="F194" t="s">
+        <v>88</v>
+      </c>
+      <c r="G194" t="s">
+        <v>411</v>
+      </c>
+      <c r="H194">
+        <v>2021</v>
+      </c>
+      <c r="I194">
+        <v>94.51</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>256</v>
+      </c>
+      <c r="C195" t="s">
+        <v>257</v>
+      </c>
+      <c r="D195" t="s">
+        <v>150</v>
+      </c>
+      <c r="E195" t="s">
+        <v>163</v>
+      </c>
+      <c r="F195" t="s">
+        <v>88</v>
+      </c>
+      <c r="G195" t="s">
+        <v>411</v>
+      </c>
+      <c r="H195">
+        <v>2021</v>
+      </c>
+      <c r="I195">
+        <v>96.28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>258</v>
+      </c>
+      <c r="C196" t="s">
+        <v>259</v>
+      </c>
+      <c r="D196" t="s">
+        <v>150</v>
+      </c>
+      <c r="E196" t="s">
+        <v>163</v>
+      </c>
+      <c r="F196" t="s">
         <v>406</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G196" t="s">
         <v>405</v>
       </c>
-      <c r="H194">
-        <v>2022</v>
-      </c>
-      <c r="I194">
-        <v>97.21</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>388</v>
-      </c>
-      <c r="C195" t="s">
-        <v>389</v>
-      </c>
-      <c r="D195" t="s">
-        <v>150</v>
-      </c>
-      <c r="E195" t="s">
-        <v>198</v>
-      </c>
-      <c r="F195" t="s">
-        <v>353</v>
-      </c>
-      <c r="G195" t="s">
-        <v>404</v>
-      </c>
-      <c r="H195">
-        <v>2022</v>
-      </c>
-      <c r="I195">
-        <v>98.02</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B196">
-        <v>19264663</v>
-      </c>
-      <c r="C196" t="s">
-        <v>5</v>
-      </c>
-      <c r="D196" t="s">
-        <v>401</v>
-      </c>
-      <c r="E196" t="s">
-        <v>2</v>
-      </c>
-      <c r="F196" t="s">
-        <v>88</v>
-      </c>
-      <c r="G196" t="s">
-        <v>400</v>
-      </c>
       <c r="H196">
-        <v>2006</v>
-      </c>
-      <c r="I196" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="H197" s="2">
-        <v>2019</v>
-      </c>
-      <c r="I197" s="2">
-        <v>97.85</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2021</v>
+      </c>
+      <c r="I196">
+        <v>93.66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>260</v>
+      </c>
+      <c r="B197"/>
+      <c r="C197" t="s">
+        <v>261</v>
+      </c>
+      <c r="D197" t="s">
+        <v>150</v>
+      </c>
+      <c r="E197" t="s">
+        <v>163</v>
+      </c>
+      <c r="F197" t="s">
+        <v>88</v>
+      </c>
+      <c r="G197" t="s">
+        <v>411</v>
+      </c>
+      <c r="H197">
+        <v>2021</v>
+      </c>
+      <c r="I197">
+        <v>94.24</v>
+      </c>
+      <c r="J197"/>
+      <c r="K197"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="C198" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="D198" t="s">
         <v>150</v>
       </c>
       <c r="E198" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F198" t="s">
         <v>88</v>
       </c>
       <c r="G198" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H198">
         <v>2021</v>
       </c>
       <c r="I198">
-        <v>97.58</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96.79</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>338</v>
+        <v>264</v>
       </c>
       <c r="C199" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="D199" t="s">
         <v>150</v>
       </c>
       <c r="E199" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F199" t="s">
         <v>88</v>
       </c>
       <c r="G199" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H199">
         <v>2021</v>
       </c>
       <c r="I199">
-        <v>95.45</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97.08</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>380</v>
+        <v>266</v>
       </c>
       <c r="C200" t="s">
-        <v>381</v>
+        <v>267</v>
       </c>
       <c r="D200" t="s">
         <v>150</v>
       </c>
       <c r="E200" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F200" t="s">
         <v>88</v>
       </c>
       <c r="G200" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H200">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I200">
-        <v>98.03</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97.25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="C201" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="D201" t="s">
         <v>150</v>
@@ -7292,79 +7315,79 @@
         <v>406</v>
       </c>
       <c r="G201" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H201">
         <v>2021</v>
       </c>
       <c r="I201">
-        <v>92.57</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+        <v>94.51</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="C202" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D202" t="s">
         <v>150</v>
       </c>
       <c r="E202" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F202" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="G202" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H202">
         <v>2021</v>
       </c>
       <c r="I202">
-        <v>97.93</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96.69</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>363</v>
+        <v>272</v>
       </c>
       <c r="C203" t="s">
-        <v>364</v>
+        <v>273</v>
       </c>
       <c r="D203" t="s">
         <v>150</v>
       </c>
       <c r="E203" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F203" t="s">
-        <v>353</v>
+        <v>88</v>
       </c>
       <c r="G203" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H203">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I203">
-        <v>98.04</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <v>94.53</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C204" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="D204" t="s">
         <v>150</v>
       </c>
       <c r="E204" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="F204" t="s">
         <v>88</v>
@@ -7373,148 +7396,148 @@
         <v>405</v>
       </c>
       <c r="H204">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="I204">
-        <v>62.82</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97.75</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="C205" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="D205" t="s">
         <v>150</v>
       </c>
       <c r="E205" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>88</v>
       </c>
       <c r="G205" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H205">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I205">
-        <v>97.9</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97.76</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="C206" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="D206" t="s">
         <v>150</v>
       </c>
       <c r="E206" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>88</v>
       </c>
       <c r="G206" t="s">
         <v>405</v>
       </c>
       <c r="H206">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I206">
-        <v>78.59</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96.28</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>384</v>
+        <v>280</v>
       </c>
       <c r="C207" t="s">
-        <v>385</v>
+        <v>281</v>
       </c>
       <c r="D207" t="s">
         <v>150</v>
       </c>
       <c r="E207" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="F207" t="s">
         <v>88</v>
       </c>
       <c r="G207" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H207">
         <v>2022</v>
       </c>
       <c r="I207">
-        <v>98.01</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+        <v>93.42</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="C208" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="D208" t="s">
         <v>150</v>
       </c>
       <c r="E208" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="F208" t="s">
         <v>88</v>
       </c>
       <c r="G208" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H208">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I208">
-        <v>97.81</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="C209" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="D209" t="s">
         <v>150</v>
       </c>
       <c r="E209" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="F209" t="s">
         <v>88</v>
       </c>
       <c r="G209" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H209">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I209">
-        <v>97.74</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97.13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C210" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D210" t="s">
         <v>150</v>
@@ -7523,7 +7546,7 @@
         <v>195</v>
       </c>
       <c r="F210" t="s">
-        <v>88</v>
+        <v>353</v>
       </c>
       <c r="G210" t="s">
         <v>404</v>
@@ -7532,154 +7555,148 @@
         <v>2021</v>
       </c>
       <c r="I210">
-        <v>97.76</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>342</v>
-      </c>
-      <c r="C211" t="s">
-        <v>343</v>
-      </c>
-      <c r="D211" t="s">
-        <v>150</v>
-      </c>
-      <c r="E211" t="s">
+        <v>97.79</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H211" s="2">
+        <v>2019</v>
+      </c>
+      <c r="I211" s="2">
+        <v>97.85</v>
+      </c>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>324</v>
+      </c>
+      <c r="C212" t="s">
+        <v>325</v>
+      </c>
+      <c r="D212" t="s">
+        <v>150</v>
+      </c>
+      <c r="E212" t="s">
         <v>195</v>
       </c>
-      <c r="F211" t="s">
-        <v>88</v>
-      </c>
-      <c r="G211" t="s">
+      <c r="F212" t="s">
+        <v>88</v>
+      </c>
+      <c r="G212" t="s">
         <v>404</v>
       </c>
-      <c r="H211">
+      <c r="H212">
         <v>2021</v>
       </c>
-      <c r="I211">
-        <v>95.72</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>6</v>
-      </c>
-      <c r="B212">
-        <v>19264663</v>
-      </c>
-      <c r="C212" t="s">
-        <v>6</v>
-      </c>
-      <c r="D212" t="s">
-        <v>401</v>
-      </c>
-      <c r="E212" t="s">
-        <v>2</v>
-      </c>
-      <c r="F212" t="s">
-        <v>88</v>
-      </c>
-      <c r="G212" t="s">
-        <v>400</v>
-      </c>
-      <c r="H212">
-        <v>2006</v>
-      </c>
-      <c r="I212" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I212">
+        <v>97.61</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>20</v>
-      </c>
-      <c r="B213">
-        <v>27058957</v>
+        <v>296</v>
       </c>
       <c r="C213" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="D213" t="s">
-        <v>401</v>
+        <v>150</v>
       </c>
       <c r="E213" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="F213" t="s">
         <v>88</v>
       </c>
       <c r="G213" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H213">
-        <v>2003</v>
-      </c>
-      <c r="I213" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2017</v>
+      </c>
+      <c r="I213">
+        <v>76.989999999999995</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>26</v>
-      </c>
-      <c r="B214">
-        <v>27058957</v>
+        <v>350</v>
       </c>
       <c r="C214" t="s">
-        <v>26</v>
+        <v>351</v>
       </c>
       <c r="D214" t="s">
-        <v>401</v>
+        <v>150</v>
       </c>
       <c r="E214" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="F214" t="s">
         <v>88</v>
       </c>
       <c r="G214" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H214">
-        <v>2003</v>
-      </c>
-      <c r="I214" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2021</v>
+      </c>
+      <c r="I214">
+        <v>97.58</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>157</v>
+        <v>367</v>
       </c>
       <c r="C215" t="s">
-        <v>165</v>
+        <v>368</v>
       </c>
       <c r="D215" t="s">
         <v>150</v>
       </c>
       <c r="E215" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F215" t="s">
-        <v>408</v>
+        <v>88</v>
       </c>
       <c r="G215" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H215">
-        <v>2017</v>
-      </c>
-      <c r="I215" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2022</v>
+      </c>
+      <c r="I215">
+        <v>97.96</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="C216" t="s">
-        <v>196</v>
+        <v>339</v>
       </c>
       <c r="D216" t="s">
         <v>150</v>
@@ -7694,24 +7711,24 @@
         <v>404</v>
       </c>
       <c r="H216">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I216">
-        <v>93.22</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+        <v>95.45</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>197</v>
+        <v>369</v>
       </c>
       <c r="C217" t="s">
-        <v>199</v>
+        <v>371</v>
       </c>
       <c r="D217" t="s">
         <v>150</v>
       </c>
       <c r="E217" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="F217" t="s">
         <v>88</v>
@@ -7720,18 +7737,18 @@
         <v>404</v>
       </c>
       <c r="H217">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I217">
-        <v>95.66</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="C218" t="s">
-        <v>201</v>
+        <v>381</v>
       </c>
       <c r="D218" t="s">
         <v>150</v>
@@ -7740,212 +7757,218 @@
         <v>195</v>
       </c>
       <c r="F218" t="s">
-        <v>406</v>
+        <v>88</v>
       </c>
       <c r="G218" t="s">
         <v>404</v>
       </c>
       <c r="H218">
+        <v>2022</v>
+      </c>
+      <c r="I218">
+        <v>98.03</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>340</v>
+      </c>
+      <c r="B219"/>
+      <c r="C219" t="s">
+        <v>341</v>
+      </c>
+      <c r="D219" t="s">
+        <v>150</v>
+      </c>
+      <c r="E219" t="s">
+        <v>195</v>
+      </c>
+      <c r="F219" t="s">
+        <v>88</v>
+      </c>
+      <c r="G219" t="s">
+        <v>404</v>
+      </c>
+      <c r="H219">
         <v>2021</v>
       </c>
-      <c r="I218">
-        <v>97.75</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E219" s="2" t="s">
+      <c r="I219">
+        <v>97.45</v>
+      </c>
+      <c r="J219"/>
+      <c r="K219"/>
+    </row>
+    <row r="220" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>309</v>
+      </c>
+      <c r="B220"/>
+      <c r="C220" t="s">
+        <v>310</v>
+      </c>
+      <c r="D220" t="s">
+        <v>150</v>
+      </c>
+      <c r="E220" t="s">
         <v>163</v>
       </c>
-      <c r="F219" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H219" s="2">
-        <v>2018</v>
-      </c>
-      <c r="I219" s="2">
-        <v>76.75</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="H220" s="2">
-        <v>2018</v>
-      </c>
-      <c r="I220" s="2">
-        <v>51.12</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F220" t="s">
+        <v>406</v>
+      </c>
+      <c r="G220" t="s">
+        <v>411</v>
+      </c>
+      <c r="H220">
+        <v>2021</v>
+      </c>
+      <c r="I220">
+        <v>92.57</v>
+      </c>
+      <c r="J220"/>
+      <c r="K220"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>218</v>
+        <v>376</v>
       </c>
       <c r="C221" t="s">
-        <v>219</v>
+        <v>377</v>
       </c>
       <c r="D221" t="s">
         <v>150</v>
       </c>
       <c r="E221" t="s">
-        <v>195</v>
+        <v>412</v>
       </c>
       <c r="F221" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="G221" t="s">
         <v>404</v>
       </c>
       <c r="H221">
+        <v>2022</v>
+      </c>
+      <c r="I221">
+        <v>96.59</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>330</v>
+      </c>
+      <c r="C222" t="s">
+        <v>331</v>
+      </c>
+      <c r="D222" t="s">
+        <v>150</v>
+      </c>
+      <c r="E222" t="s">
+        <v>195</v>
+      </c>
+      <c r="F222" t="s">
+        <v>88</v>
+      </c>
+      <c r="G222" t="s">
+        <v>404</v>
+      </c>
+      <c r="H222">
         <v>2021</v>
       </c>
-      <c r="I221">
-        <v>95.74</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>220</v>
-      </c>
-      <c r="C222" t="s">
-        <v>221</v>
-      </c>
-      <c r="D222" t="s">
-        <v>150</v>
-      </c>
-      <c r="E222" t="s">
-        <v>214</v>
-      </c>
-      <c r="F222" t="s">
-        <v>88</v>
-      </c>
-      <c r="G222" t="s">
-        <v>405</v>
-      </c>
-      <c r="H222">
-        <v>2022</v>
-      </c>
       <c r="I222">
-        <v>97.78</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>359</v>
       </c>
       <c r="C223" t="s">
-        <v>223</v>
+        <v>360</v>
       </c>
       <c r="D223" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="E223" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="F223" t="s">
         <v>88</v>
       </c>
       <c r="G223" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H223">
         <v>2022</v>
       </c>
       <c r="I223">
-        <v>97.53</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97.88</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="C224" t="s">
-        <v>226</v>
+        <v>315</v>
       </c>
       <c r="D224" t="s">
         <v>150</v>
       </c>
       <c r="E224" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="F224" t="s">
         <v>88</v>
       </c>
       <c r="G224" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H224">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I224">
-        <v>97.21</v>
+        <v>97.93</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>227</v>
+        <v>363</v>
       </c>
       <c r="C225" t="s">
-        <v>229</v>
+        <v>364</v>
       </c>
       <c r="D225" t="s">
         <v>150</v>
       </c>
       <c r="E225" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="F225" t="s">
-        <v>88</v>
+        <v>353</v>
       </c>
       <c r="G225" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H225">
         <v>2022</v>
       </c>
       <c r="I225">
-        <v>96.66</v>
+        <v>98.04</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="C226" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="D226" t="s">
         <v>150</v>
       </c>
       <c r="E226" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="F226" t="s">
         <v>88</v>
@@ -7954,215 +7977,215 @@
         <v>405</v>
       </c>
       <c r="H226">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="I226">
-        <v>97.76</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="C227" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="D227" t="s">
         <v>150</v>
       </c>
       <c r="E227" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="F227" t="s">
         <v>88</v>
       </c>
       <c r="G227" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H227">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="I227">
-        <v>96.79</v>
+        <v>62.82</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>234</v>
+        <v>344</v>
       </c>
       <c r="C228" t="s">
-        <v>235</v>
+        <v>345</v>
       </c>
       <c r="D228" t="s">
         <v>150</v>
       </c>
       <c r="E228" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="F228" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="G228" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H228">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I228">
-        <v>96.44</v>
+        <v>97.9</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>236</v>
+        <v>303</v>
       </c>
       <c r="C229" t="s">
-        <v>237</v>
+        <v>304</v>
       </c>
       <c r="D229" t="s">
         <v>150</v>
       </c>
       <c r="E229" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F229" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="G229" t="s">
         <v>405</v>
       </c>
       <c r="H229">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I229">
-        <v>97.7</v>
+        <v>78.59</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>238</v>
+        <v>384</v>
       </c>
       <c r="C230" t="s">
-        <v>239</v>
+        <v>385</v>
       </c>
       <c r="D230" t="s">
         <v>150</v>
       </c>
       <c r="E230" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="F230" t="s">
         <v>88</v>
       </c>
       <c r="G230" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H230">
         <v>2022</v>
       </c>
       <c r="I230">
-        <v>97.74</v>
+        <v>98.01</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="C231" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="D231" t="s">
         <v>150</v>
       </c>
       <c r="E231" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="F231" t="s">
-        <v>406</v>
+        <v>130</v>
       </c>
       <c r="G231" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H231">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I231">
-        <v>97.03</v>
+        <v>74.930000000000007</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="C232" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="D232" t="s">
         <v>150</v>
       </c>
       <c r="E232" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="F232" t="s">
         <v>88</v>
       </c>
       <c r="G232" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H232">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I232">
-        <v>97.85</v>
+        <v>97.81</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="C233" t="s">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="D233" t="s">
         <v>150</v>
       </c>
       <c r="E233" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="F233" t="s">
         <v>88</v>
       </c>
       <c r="G233" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H233">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I233">
-        <v>97.7</v>
+        <v>97.74</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="C234" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="D234" t="s">
         <v>150</v>
       </c>
       <c r="E234" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F234" t="s">
         <v>88</v>
       </c>
       <c r="G234" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H234">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I234">
         <v>97.76</v>
@@ -8170,166 +8193,166 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>248</v>
+        <v>374</v>
       </c>
       <c r="C235" t="s">
-        <v>249</v>
+        <v>375</v>
       </c>
       <c r="D235" t="s">
         <v>150</v>
       </c>
       <c r="E235" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F235" t="s">
         <v>88</v>
       </c>
       <c r="G235" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H235">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I235">
-        <v>95.92</v>
+        <v>98.04</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>250</v>
+        <v>382</v>
       </c>
       <c r="C236" t="s">
-        <v>251</v>
+        <v>383</v>
       </c>
       <c r="D236" t="s">
         <v>150</v>
       </c>
       <c r="E236" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F236" t="s">
         <v>88</v>
       </c>
       <c r="G236" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H236">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I236">
-        <v>97.76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="C237" t="s">
-        <v>253</v>
+        <v>366</v>
       </c>
       <c r="D237" t="s">
         <v>150</v>
       </c>
       <c r="E237" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F237" t="s">
         <v>88</v>
       </c>
       <c r="G237" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H237">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I237">
-        <v>96.68</v>
+        <v>98.01</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="C238" t="s">
-        <v>255</v>
+        <v>373</v>
       </c>
       <c r="D238" t="s">
         <v>150</v>
       </c>
       <c r="E238" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F238" t="s">
-        <v>88</v>
+        <v>353</v>
       </c>
       <c r="G238" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H238">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I238">
-        <v>94.51</v>
+        <v>98.03</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="C239" t="s">
-        <v>257</v>
+        <v>337</v>
       </c>
       <c r="D239" t="s">
         <v>150</v>
       </c>
       <c r="E239" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F239" t="s">
         <v>88</v>
       </c>
       <c r="G239" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H239">
         <v>2021</v>
       </c>
       <c r="I239">
-        <v>96.28</v>
+        <v>97.71</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="C240" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="D240" t="s">
         <v>150</v>
       </c>
       <c r="E240" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F240" t="s">
-        <v>406</v>
+        <v>88</v>
       </c>
       <c r="G240" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H240">
         <v>2021</v>
       </c>
       <c r="I240">
-        <v>93.66</v>
+        <v>97.85</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C241" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="D241" t="s">
         <v>150</v>
@@ -8338,102 +8361,102 @@
         <v>163</v>
       </c>
       <c r="F241" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="G241" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H241">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="I241">
-        <v>94.24</v>
+        <v>62.62</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="C242" t="s">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="D242" t="s">
         <v>150</v>
       </c>
       <c r="E242" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F242" t="s">
         <v>88</v>
       </c>
       <c r="G242" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H242">
         <v>2021</v>
       </c>
       <c r="I242">
-        <v>96.79</v>
+        <v>95.72</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="C243" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="D243" t="s">
         <v>150</v>
       </c>
       <c r="E243" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F243" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="G243" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H243">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="I243">
-        <v>97.08</v>
+        <v>76.73</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>266</v>
+        <v>334</v>
       </c>
       <c r="C244" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="D244" t="s">
         <v>150</v>
       </c>
       <c r="E244" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F244" t="s">
         <v>88</v>
       </c>
       <c r="G244" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H244">
         <v>2021</v>
       </c>
       <c r="I244">
-        <v>97.25</v>
+        <v>97.77</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="C245" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D245" t="s">
         <v>150</v>
@@ -8448,76 +8471,76 @@
         <v>405</v>
       </c>
       <c r="H245">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="I245">
-        <v>94.51</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>270</v>
+        <v>378</v>
       </c>
       <c r="C246" t="s">
-        <v>271</v>
+        <v>379</v>
       </c>
       <c r="D246" t="s">
         <v>150</v>
       </c>
       <c r="E246" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F246" t="s">
-        <v>406</v>
+        <v>88</v>
       </c>
       <c r="G246" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H246">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I246">
-        <v>96.69</v>
+        <v>98.03</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="C247" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="D247" t="s">
         <v>150</v>
       </c>
       <c r="E247" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F247" t="s">
-        <v>88</v>
+        <v>353</v>
       </c>
       <c r="G247" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H247">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I247">
-        <v>94.53</v>
+        <v>98.05</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>274</v>
+      <c r="A248">
+        <v>2011100186</v>
       </c>
       <c r="C248" t="s">
-        <v>275</v>
+        <v>410</v>
       </c>
       <c r="D248" t="s">
         <v>150</v>
       </c>
       <c r="E248" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="F248" t="s">
         <v>88</v>
@@ -8526,50 +8549,50 @@
         <v>405</v>
       </c>
       <c r="H248">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="I248">
-        <v>97.75</v>
+        <v>83.12</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>276</v>
+        <v>390</v>
       </c>
       <c r="C249" t="s">
-        <v>277</v>
+        <v>391</v>
       </c>
       <c r="D249" t="s">
         <v>150</v>
       </c>
       <c r="E249" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="F249" t="s">
-        <v>88</v>
+        <v>353</v>
       </c>
       <c r="G249" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H249">
         <v>2022</v>
       </c>
       <c r="I249">
-        <v>97.76</v>
+        <v>98.07</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="C250" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D250" t="s">
         <v>150</v>
       </c>
       <c r="E250" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="F250" t="s">
         <v>88</v>
@@ -8581,50 +8604,50 @@
         <v>2022</v>
       </c>
       <c r="I250">
-        <v>96.28</v>
+        <v>97.16</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>280</v>
+        <v>386</v>
       </c>
       <c r="C251" t="s">
-        <v>281</v>
+        <v>387</v>
       </c>
       <c r="D251" t="s">
         <v>150</v>
       </c>
       <c r="E251" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="F251" t="s">
         <v>88</v>
       </c>
       <c r="G251" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H251">
         <v>2022</v>
       </c>
       <c r="I251">
-        <v>93.42</v>
+        <v>97.99</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="C252" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="D252" t="s">
         <v>150</v>
       </c>
       <c r="E252" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F252" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="G252" t="s">
         <v>405</v>
@@ -8633,33 +8656,33 @@
         <v>2022</v>
       </c>
       <c r="I252">
-        <v>97.8</v>
+        <v>97.21</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>284</v>
+        <v>388</v>
       </c>
       <c r="C253" t="s">
-        <v>285</v>
+        <v>389</v>
       </c>
       <c r="D253" t="s">
         <v>150</v>
       </c>
       <c r="E253" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="F253" t="s">
-        <v>88</v>
+        <v>353</v>
       </c>
       <c r="G253" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H253">
         <v>2022</v>
       </c>
       <c r="I253">
-        <v>97.13</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -8961,7 +8984,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{4D51F4F7-708D-BA46-AF22-E49F388EBEFB}"/>
+  <autoFilter ref="A1:K1" xr:uid="{4D51F4F7-708D-BA46-AF22-E49F388EBEFB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K264">
+      <sortCondition ref="C1:C264"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
